--- a/larray/tests/data/examples.xlsx
+++ b/larray/tests/data/examples.xlsx
@@ -1,73 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7045E0-7DB7-412E-8D92-B06D3D9338B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B36A3-412C-4F86-872C-2976BE7F79A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12705" activeTab="3" xr2:uid="{7043041A-E710-461B-9144-9DDB3B96D9FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="5" xr2:uid="{9BE3A67C-EAA8-497E-B715-2E5EA49CD856}"/>
   </bookViews>
   <sheets>
-    <sheet name="1d" sheetId="2" r:id="rId1"/>
-    <sheet name="2d" sheetId="3" r:id="rId2"/>
-    <sheet name="missing_values" sheetId="1" r:id="rId3"/>
-    <sheet name="missing_axis_name" sheetId="6" r:id="rId4"/>
-    <sheet name="narrow_2d" sheetId="8" r:id="rId5"/>
+    <sheet name="pop" sheetId="1" r:id="rId1"/>
+    <sheet name="births" sheetId="2" r:id="rId2"/>
+    <sheet name="deaths" sheetId="3" r:id="rId3"/>
+    <sheet name="pop_missing_axis_name" sheetId="4" r:id="rId4"/>
+    <sheet name="pop_missing_values" sheetId="5" r:id="rId5"/>
+    <sheet name="pop_narrow_format" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
   <si>
-    <t>a</t>
+    <t>geo</t>
   </si>
   <si>
-    <t>b\c</t>
+    <t>gender\time</t>
   </si>
   <si>
-    <t>c0</t>
+    <t>Belgium</t>
   </si>
   <si>
-    <t>c1</t>
+    <t>Male</t>
   </si>
   <si>
-    <t>c2</t>
+    <t>Female</t>
   </si>
   <si>
-    <t>a0</t>
+    <t>France</t>
   </si>
   <si>
-    <t>b0</t>
+    <t>Germany</t>
   </si>
   <si>
-    <t>b1</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a\b</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>time</t>
   </si>
   <si>
     <t>value</t>
@@ -421,36 +415,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB771114-7E9D-4C17-8B40-9DF1002A104F}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9C4059-1A00-45BB-9BA1-67B1A2124563}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5472856</v>
+      </c>
+      <c r="D2">
+        <v>5493792</v>
+      </c>
+      <c r="E2">
+        <v>5524068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5665118</v>
+      </c>
+      <c r="D3">
+        <v>5687048</v>
+      </c>
+      <c r="E3">
+        <v>5713206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>31772665</v>
+      </c>
+      <c r="D4">
+        <v>31936596</v>
+      </c>
+      <c r="E4">
+        <v>32175328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>33827685</v>
+      </c>
+      <c r="D5">
+        <v>34005671</v>
+      </c>
+      <c r="E5">
+        <v>34280951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>39380976</v>
+      </c>
+      <c r="D6">
+        <v>39556923</v>
+      </c>
+      <c r="E6">
+        <v>39835457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>41142770</v>
+      </c>
+      <c r="D7">
+        <v>41210540</v>
+      </c>
+      <c r="E7">
+        <v>41362080</v>
       </c>
     </row>
   </sheetData>
@@ -459,57 +547,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C0E2D3-3AD2-443A-B350-378AA4CCC2E1}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF006A08-AC77-4386-BFE4-006449F111EF}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>64371</v>
+      </c>
+      <c r="D2">
+        <v>64173</v>
+      </c>
+      <c r="E2">
+        <v>62561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>61235</v>
+      </c>
+      <c r="D3">
+        <v>60841</v>
+      </c>
+      <c r="E3">
+        <v>59713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>415762</v>
+      </c>
+      <c r="D4">
+        <v>418721</v>
+      </c>
+      <c r="E4">
+        <v>409145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>396581</v>
+      </c>
+      <c r="D5">
+        <v>400607</v>
+      </c>
+      <c r="E5">
+        <v>390526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>349820</v>
+      </c>
+      <c r="D6">
+        <v>366835</v>
+      </c>
+      <c r="E6">
+        <v>378478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>332249</v>
+      </c>
+      <c r="D7">
+        <v>348092</v>
+      </c>
+      <c r="E7">
+        <v>359097</v>
       </c>
     </row>
   </sheetData>
@@ -518,12 +679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F29D973-230B-4F35-A565-0C438B724252}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4A8AD-D7C2-4B7B-8B0F-F69E8F4403CD}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -534,82 +693,116 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>53908</v>
+      </c>
+      <c r="D2">
+        <v>51579</v>
+      </c>
+      <c r="E2">
+        <v>53631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>55426</v>
+      </c>
+      <c r="D3">
+        <v>53176</v>
+      </c>
+      <c r="E3">
+        <v>56910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>287410</v>
+      </c>
+      <c r="D4">
+        <v>282381</v>
+      </c>
+      <c r="E4">
+        <v>297028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>281955</v>
+      </c>
+      <c r="D5">
+        <v>277054</v>
+      </c>
+      <c r="E5">
+        <v>296779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>429645</v>
+      </c>
+      <c r="D6">
+        <v>422225</v>
+      </c>
+      <c r="E6">
+        <v>449512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>464180</v>
+      </c>
+      <c r="D7">
+        <v>446131</v>
+      </c>
+      <c r="E7">
+        <v>475688</v>
       </c>
     </row>
   </sheetData>
@@ -618,69 +811,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81E4C1A-F6DA-48F4-A82B-E5C5AF5C5575}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD980BD-847F-498C-9397-1BF4A1E12CBA}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5472856</v>
+      </c>
+      <c r="D2">
+        <v>5493792</v>
+      </c>
+      <c r="E2">
+        <v>5524068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5665118</v>
+      </c>
+      <c r="D3">
+        <v>5687048</v>
+      </c>
+      <c r="E3">
+        <v>5713206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>31772665</v>
+      </c>
+      <c r="D4">
+        <v>31936596</v>
+      </c>
+      <c r="E4">
+        <v>32175328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>33827685</v>
+      </c>
+      <c r="D5">
+        <v>34005671</v>
+      </c>
+      <c r="E5">
+        <v>34280951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>39380976</v>
+      </c>
+      <c r="D6">
+        <v>39556923</v>
+      </c>
+      <c r="E6">
+        <v>39835457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>41142770</v>
+      </c>
+      <c r="D7">
+        <v>41210540</v>
+      </c>
+      <c r="E7">
+        <v>41362080</v>
       </c>
     </row>
   </sheetData>
@@ -689,12 +943,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38031E58-3461-4A03-B842-9AEABFC0F6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD6C4D3-5A4A-49C7-BA9C-7562042A28B2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5472856</v>
+      </c>
+      <c r="D2">
+        <v>5493792</v>
+      </c>
+      <c r="E2">
+        <v>5524068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5665118</v>
+      </c>
+      <c r="D3">
+        <v>5687048</v>
+      </c>
+      <c r="E3">
+        <v>5713206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>33827685</v>
+      </c>
+      <c r="D4">
+        <v>34005671</v>
+      </c>
+      <c r="E4">
+        <v>34280951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>39380976</v>
+      </c>
+      <c r="D5">
+        <v>39556923</v>
+      </c>
+      <c r="E5">
+        <v>39835457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5258A7-89D3-4939-9C47-DA8F443C2E19}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -703,80 +1053,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2013</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11137974</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2014</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11180840</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2015</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>11237274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>65600350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>65942267</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>66456279</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
 </file>
--- a/larray/tests/data/examples.xlsx
+++ b/larray/tests/data/examples.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B36A3-412C-4F86-872C-2976BE7F79A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA03F1-CFA6-43AA-84C9-A28FB00E85DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="5" xr2:uid="{9BE3A67C-EAA8-497E-B715-2E5EA49CD856}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" firstSheet="2" activeTab="6" xr2:uid="{A12C254C-960A-4AAF-85FF-7581D4D82B16}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
     <sheet name="births" sheetId="2" r:id="rId2"/>
     <sheet name="deaths" sheetId="3" r:id="rId3"/>
-    <sheet name="pop_missing_axis_name" sheetId="4" r:id="rId4"/>
-    <sheet name="pop_missing_values" sheetId="5" r:id="rId5"/>
-    <sheet name="pop_narrow_format" sheetId="6" r:id="rId6"/>
+    <sheet name="pop_births_deaths" sheetId="4" r:id="rId4"/>
+    <sheet name="pop_missing_axis_name" sheetId="5" r:id="rId5"/>
+    <sheet name="pop_missing_values" sheetId="6" r:id="rId6"/>
+    <sheet name="pop_narrow_format" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
   <si>
     <t>geo</t>
   </si>
@@ -415,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9C4059-1A00-45BB-9BA1-67B1A2124563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BE790E-79A9-470F-AB9B-29365D010FFB}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -547,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF006A08-AC77-4386-BFE4-006449F111EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0327710A-D949-4841-B2D2-5D1CA67153B6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -679,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4A8AD-D7C2-4B7B-8B0F-F69E8F4403CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F0A1-81D1-4F38-B3D4-C942CFF6A2A3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -811,7 +812,377 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD980BD-847F-498C-9397-1BF4A1E12CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00C9EF-42E5-4CB7-8653-AC9E9DA67E51}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5472856</v>
+      </c>
+      <c r="D2">
+        <v>5493792</v>
+      </c>
+      <c r="E2">
+        <v>5524068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5665118</v>
+      </c>
+      <c r="D3">
+        <v>5687048</v>
+      </c>
+      <c r="E3">
+        <v>5713206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>31772665</v>
+      </c>
+      <c r="D4">
+        <v>31936596</v>
+      </c>
+      <c r="E4">
+        <v>32175328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>33827685</v>
+      </c>
+      <c r="D5">
+        <v>34005671</v>
+      </c>
+      <c r="E5">
+        <v>34280951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>39380976</v>
+      </c>
+      <c r="D6">
+        <v>39556923</v>
+      </c>
+      <c r="E6">
+        <v>39835457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>41142770</v>
+      </c>
+      <c r="D7">
+        <v>41210540</v>
+      </c>
+      <c r="E7">
+        <v>41362080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>64371</v>
+      </c>
+      <c r="D10">
+        <v>64173</v>
+      </c>
+      <c r="E10">
+        <v>62561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>61235</v>
+      </c>
+      <c r="D11">
+        <v>60841</v>
+      </c>
+      <c r="E11">
+        <v>59713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>415762</v>
+      </c>
+      <c r="D12">
+        <v>418721</v>
+      </c>
+      <c r="E12">
+        <v>409145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>396581</v>
+      </c>
+      <c r="D13">
+        <v>400607</v>
+      </c>
+      <c r="E13">
+        <v>390526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>349820</v>
+      </c>
+      <c r="D14">
+        <v>366835</v>
+      </c>
+      <c r="E14">
+        <v>378478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>332249</v>
+      </c>
+      <c r="D15">
+        <v>348092</v>
+      </c>
+      <c r="E15">
+        <v>359097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>53908</v>
+      </c>
+      <c r="D18">
+        <v>51579</v>
+      </c>
+      <c r="E18">
+        <v>53631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>55426</v>
+      </c>
+      <c r="D19">
+        <v>53176</v>
+      </c>
+      <c r="E19">
+        <v>56910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>287410</v>
+      </c>
+      <c r="D20">
+        <v>282381</v>
+      </c>
+      <c r="E20">
+        <v>297028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>281955</v>
+      </c>
+      <c r="D21">
+        <v>277054</v>
+      </c>
+      <c r="E21">
+        <v>296779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>429645</v>
+      </c>
+      <c r="D22">
+        <v>422225</v>
+      </c>
+      <c r="E22">
+        <v>449512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>464180</v>
+      </c>
+      <c r="D23">
+        <v>446131</v>
+      </c>
+      <c r="E23">
+        <v>475688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D4308D-6458-4352-9E6C-1C6F36A9FBA8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -942,8 +1313,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD6C4D3-5A4A-49C7-BA9C-7562042A28B2}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C4D986-8E59-4841-B8FE-54AC67906118}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1040,8 +1411,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5258A7-89D3-4939-9C47-DA8F443C2E19}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E962BC3-C541-4963-B396-0F3DF2576321}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/larray/tests/data/examples.xlsx
+++ b/larray/tests/data/examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA03F1-CFA6-43AA-84C9-A28FB00E85DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E319F-77B8-4D1B-AEBB-AAB85B6040D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" firstSheet="2" activeTab="6" xr2:uid="{A12C254C-960A-4AAF-85FF-7581D4D82B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="6" xr2:uid="{384BC4DB-6A7A-4E88-8064-9C7554326CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="pop_missing_values" sheetId="6" r:id="rId6"/>
     <sheet name="pop_narrow_format" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
   <si>
-    <t>geo</t>
+    <t>country</t>
   </si>
   <si>
     <t>gender\time</t>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BE790E-79A9-470F-AB9B-29365D010FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B465A4B-C4E2-4C0E-873C-9290CF5F5BA5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -548,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0327710A-D949-4841-B2D2-5D1CA67153B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A06479-CE92-4478-A947-2ED4EA663093}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F0A1-81D1-4F38-B3D4-C942CFF6A2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC3CA1E-76BC-4F88-8907-BB3EDF24C111}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00C9EF-42E5-4CB7-8653-AC9E9DA67E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB416D2-A60A-4F73-BA35-0237273803F2}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1182,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D4308D-6458-4352-9E6C-1C6F36A9FBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794092F8-025F-4896-888F-5679CBE1E8E9}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C4D986-8E59-4841-B8FE-54AC67906118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F67AA6-9515-4C6A-BB6B-80497F1D4A8B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1412,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E962BC3-C541-4963-B396-0F3DF2576321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354C3610-7EF8-4CB1-BB82-F41B630E32E5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/larray/tests/data/examples.xlsx
+++ b/larray/tests/data/examples.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E319F-77B8-4D1B-AEBB-AAB85B6040D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D2CD3-9E7A-499C-8473-504C79DB2487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="6" xr2:uid="{384BC4DB-6A7A-4E88-8064-9C7554326CF4}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" activeTab="7" xr2:uid="{135365FB-AFC7-46BC-BE61-75F82AAD7040}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
     <sheet name="births" sheetId="2" r:id="rId2"/>
     <sheet name="deaths" sheetId="3" r:id="rId3"/>
-    <sheet name="pop_births_deaths" sheetId="4" r:id="rId4"/>
-    <sheet name="pop_missing_axis_name" sheetId="5" r:id="rId5"/>
-    <sheet name="pop_missing_values" sheetId="6" r:id="rId6"/>
-    <sheet name="pop_narrow_format" sheetId="7" r:id="rId7"/>
+    <sheet name="immigration" sheetId="4" r:id="rId4"/>
+    <sheet name="pop_births_deaths" sheetId="5" r:id="rId5"/>
+    <sheet name="pop_missing_axis_name" sheetId="6" r:id="rId6"/>
+    <sheet name="pop_missing_values" sheetId="7" r:id="rId7"/>
+    <sheet name="pop_narrow_format" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
   <si>
     <t>country</t>
   </si>
@@ -57,6 +59,15 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
   <si>
     <t>gender</t>
@@ -416,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B465A4B-C4E2-4C0E-873C-9290CF5F5BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C25C8A-2231-4748-BB9D-BE88F73F47F3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -485,10 +496,10 @@
         <v>31772665</v>
       </c>
       <c r="D4">
-        <v>31936596</v>
+        <v>32045129</v>
       </c>
       <c r="E4">
-        <v>32175328</v>
+        <v>32174258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,10 +513,10 @@
         <v>33827685</v>
       </c>
       <c r="D5">
-        <v>34005671</v>
+        <v>34120851</v>
       </c>
       <c r="E5">
-        <v>34280951</v>
+        <v>34283895</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A06479-CE92-4478-A947-2ED4EA663093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4E6B3-0C02-4E02-82C3-C6C2C5E824A9}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -680,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC3CA1E-76BC-4F88-8907-BB3EDF24C111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19DA5DB-8521-4236-A5F9-F3C87DF09417}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -812,7 +823,400 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB416D2-A60A-4F73-BA35-0237273803F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0426E438-C970-4E4F-A303-3ABC7D7E4F3B}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>8822</v>
+      </c>
+      <c r="E2">
+        <v>10512</v>
+      </c>
+      <c r="F2">
+        <v>11378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5727</v>
+      </c>
+      <c r="E3">
+        <v>6301</v>
+      </c>
+      <c r="F3">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4185</v>
+      </c>
+      <c r="E6">
+        <v>4222</v>
+      </c>
+      <c r="F6">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3737</v>
+      </c>
+      <c r="E7">
+        <v>3844</v>
+      </c>
+      <c r="F7">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>896</v>
+      </c>
+      <c r="E8">
+        <v>937</v>
+      </c>
+      <c r="F8">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>574</v>
+      </c>
+      <c r="E9">
+        <v>655</v>
+      </c>
+      <c r="F9">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>694</v>
+      </c>
+      <c r="E10">
+        <v>722</v>
+      </c>
+      <c r="F10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>607</v>
+      </c>
+      <c r="E11">
+        <v>586</v>
+      </c>
+      <c r="F11">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>160</v>
+      </c>
+      <c r="E12">
+        <v>165</v>
+      </c>
+      <c r="F12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>97</v>
+      </c>
+      <c r="F13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1063</v>
+      </c>
+      <c r="E14">
+        <v>1141</v>
+      </c>
+      <c r="F14">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>980</v>
+      </c>
+      <c r="E15">
+        <v>1071</v>
+      </c>
+      <c r="F15">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>19374</v>
+      </c>
+      <c r="E18">
+        <v>20037</v>
+      </c>
+      <c r="F18">
+        <v>21119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>16945</v>
+      </c>
+      <c r="E19">
+        <v>17411</v>
+      </c>
+      <c r="F19">
+        <v>18084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D239D2D-9F7A-4E79-94E6-88DBAA96F2F8}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -881,10 +1285,10 @@
         <v>31772665</v>
       </c>
       <c r="D4">
-        <v>31936596</v>
+        <v>32045129</v>
       </c>
       <c r="E4">
-        <v>32175328</v>
+        <v>32174258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,10 +1302,10 @@
         <v>33827685</v>
       </c>
       <c r="D5">
-        <v>34005671</v>
+        <v>34120851</v>
       </c>
       <c r="E5">
-        <v>34280951</v>
+        <v>34283895</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,8 +1585,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794092F8-025F-4896-888F-5679CBE1E8E9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E01D96-D958-46EB-9BA6-9F885914CE48}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1194,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <v>2013</v>
@@ -1251,10 +1655,10 @@
         <v>31772665</v>
       </c>
       <c r="D4">
-        <v>31936596</v>
+        <v>32045129</v>
       </c>
       <c r="E4">
-        <v>32175328</v>
+        <v>32174258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,10 +1672,10 @@
         <v>33827685</v>
       </c>
       <c r="D5">
-        <v>34005671</v>
+        <v>34120851</v>
       </c>
       <c r="E5">
-        <v>34280951</v>
+        <v>34283895</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,8 +1717,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F67AA6-9515-4C6A-BB6B-80497F1D4A8B}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AD7BCD-1BEE-45AC-9639-2A83CE8FDE4A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1383,10 +1787,10 @@
         <v>33827685</v>
       </c>
       <c r="D4">
-        <v>34005671</v>
+        <v>34120851</v>
       </c>
       <c r="E4">
-        <v>34280951</v>
+        <v>34283895</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,8 +1815,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354C3610-7EF8-4CB1-BB82-F41B630E32E5}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2BB0B-ED50-48D8-B142-FC5A7947860B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1424,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1886,7 @@
         <v>2014</v>
       </c>
       <c r="C6">
-        <v>65942267</v>
+        <v>66165980</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,7 +1897,7 @@
         <v>2015</v>
       </c>
       <c r="C7">
-        <v>66456279</v>
+        <v>66458153</v>
       </c>
     </row>
   </sheetData>

--- a/larray/tests/data/examples.xlsx
+++ b/larray/tests/data/examples.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D2CD3-9E7A-499C-8473-504C79DB2487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F6793-7E86-4285-ADC9-EB60BDD39EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" activeTab="7" xr2:uid="{135365FB-AFC7-46BC-BE61-75F82AAD7040}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12675" activeTab="7" xr2:uid="{8308E4F8-C344-4054-AA74-B180C8826519}"/>
   </bookViews>
   <sheets>
-    <sheet name="pop" sheetId="1" r:id="rId1"/>
+    <sheet name="population" sheetId="1" r:id="rId1"/>
     <sheet name="births" sheetId="2" r:id="rId2"/>
     <sheet name="deaths" sheetId="3" r:id="rId3"/>
     <sheet name="immigration" sheetId="4" r:id="rId4"/>
-    <sheet name="pop_births_deaths" sheetId="5" r:id="rId5"/>
-    <sheet name="pop_missing_axis_name" sheetId="6" r:id="rId6"/>
-    <sheet name="pop_missing_values" sheetId="7" r:id="rId7"/>
-    <sheet name="pop_narrow_format" sheetId="8" r:id="rId8"/>
+    <sheet name="population_births_deaths" sheetId="5" r:id="rId5"/>
+    <sheet name="population_missing_axis_name" sheetId="6" r:id="rId6"/>
+    <sheet name="population_missing_values" sheetId="7" r:id="rId7"/>
+    <sheet name="population_narrow_format" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C25C8A-2231-4748-BB9D-BE88F73F47F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5A2BA2-BA4A-4A7B-8262-C0642B7C18F2}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4E6B3-0C02-4E02-82C3-C6C2C5E824A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D18B99C-C87B-4D83-A55C-3D96A1A23DCA}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19DA5DB-8521-4236-A5F9-F3C87DF09417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B59DAC0-A998-4530-B788-A235437DB382}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0426E438-C970-4E4F-A303-3ABC7D7E4F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FC8EA7-6D19-4028-BD50-810DF713C1ED}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D239D2D-9F7A-4E79-94E6-88DBAA96F2F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AB8570-D960-4BC1-BB3B-603BBA63D589}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1586,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E01D96-D958-46EB-9BA6-9F885914CE48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B022A422-4D84-4A3E-B8A1-30010B573689}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1718,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AD7BCD-1BEE-45AC-9639-2A83CE8FDE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48716FA6-01C2-4C95-A63D-5F94A95C7F05}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1816,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2BB0B-ED50-48D8-B142-FC5A7947860B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D7716-1C97-482E-B177-05268B32F404}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
